--- a/esercitrazionejava/src/main/resources/excel.xlsx
+++ b/esercitrazionejava/src/main/resources/excel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bserinelli\Documents\GitHub\Esercitzione-Java-1\esercitrazionejava\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\Esercitazione-Java-1\esercitrazionejava\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D39A57A-6C70-4BB7-BC52-0DFEF4C8C2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -29,25 +30,25 @@
     <t>Ciao</t>
   </si>
   <si>
-    <t>Sono</t>
-  </si>
-  <si>
     <t>un</t>
   </si>
   <si>
-    <t>esempio</t>
-  </si>
-  <si>
     <t xml:space="preserve">di </t>
   </si>
   <si>
-    <t>test</t>
+    <t>ragazzo</t>
+  </si>
+  <si>
+    <t>sono</t>
+  </si>
+  <si>
+    <t>22 anni.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,30 +359,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -389,5 +390,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>